--- a/DimEstados.xlsx
+++ b/DimEstados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\Downloads\MVP\MVP_SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE47B26B-1029-4E42-BAB7-4EA1CEA93E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{534B81FB-CF20-43C2-9384-856C2814C91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EBBD0A2-D164-4AD8-B106-802AE902CB95}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{035919D9-0DE8-4546-8264-8E35CB2980C1}"/>
   </bookViews>
   <sheets>
     <sheet name="DimEstados" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>Estados</t>
   </si>
   <si>
-    <t>Siglas</t>
-  </si>
-  <si>
     <t>Acre</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>TO</t>
+  </si>
+  <si>
+    <t>UF</t>
   </si>
 </sst>
 </file>
@@ -735,12 +735,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{033373E1-6F60-40A3-A910-76FCBCE7C7E2}" name="Tabela1" displayName="Tabela1" ref="A1:C28" totalsRowShown="0">
-  <autoFilter ref="A1:C28" xr:uid="{033373E1-6F60-40A3-A910-76FCBCE7C7E2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E848824-E256-4BC1-94EC-6A0D633D8751}" name="Tabela1" displayName="Tabela1" ref="A1:C28" totalsRowShown="0">
+  <autoFilter ref="A1:C28" xr:uid="{9E848824-E256-4BC1-94EC-6A0D633D8751}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6159DE67-AC7E-487B-A6A4-9C7302955E1A}" name="EstadoID"/>
-    <tableColumn id="2" xr3:uid="{7B543BE0-BE5A-4D33-A964-AF46D43C5F5C}" name="Estados"/>
-    <tableColumn id="3" xr3:uid="{49B288FC-EC3C-4512-9C50-F44FA8DB07CD}" name="Siglas"/>
+    <tableColumn id="1" xr3:uid="{04514F15-638E-4F20-BEBC-FD872F5AB9F8}" name="EstadoID"/>
+    <tableColumn id="2" xr3:uid="{1CCDE797-0604-47C8-B86D-A1B3A1BE1710}" name="Estados"/>
+    <tableColumn id="3" xr3:uid="{74C5E3D2-49CE-4366-9006-3ABAD2D8C7A5}" name="UF"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1062,11 +1062,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D81CFA0-3A0D-47B7-A2E2-8D6559C6E5A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7697BC-467A-4F47-9A02-ECAC91F251D4}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C28"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1091,10 +1091,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1102,10 +1102,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1113,10 +1113,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1124,10 +1124,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1135,10 +1135,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,10 +1146,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1157,10 +1157,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1168,10 +1168,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1179,10 +1179,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1190,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1212,10 +1212,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1223,10 +1223,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1234,10 +1234,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1245,10 +1245,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1256,10 +1256,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1267,10 +1267,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1278,10 +1278,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1289,10 +1289,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1300,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1311,10 +1311,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1322,10 +1322,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1333,10 +1333,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1344,10 +1344,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1355,10 +1355,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
         <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1366,10 +1366,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1377,10 +1377,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
